--- a/src/main/resources/chatbot_data.xlsx
+++ b/src/main/resources/chatbot_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DEPI\Oman\OmanProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96DF09A-2BC2-4272-99EF-E4DFD542E24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7AA9EB-ECD9-4E9B-A884-085809034909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4668" yWindow="2208" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -476,13 +476,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
@@ -493,105 +494,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="141" thickBot="1">
+    <row r="2" spans="1:2" ht="47.4" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="125.4" thickBot="1">
+    <row r="3" spans="1:2" ht="31.8" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="125.4" thickBot="1">
+    <row r="4" spans="1:2" ht="31.8" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="94.2" thickBot="1">
+    <row r="5" spans="1:2" ht="31.8" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="187.8" thickBot="1">
+    <row r="6" spans="1:2" ht="47.4" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="141" thickBot="1">
+    <row r="7" spans="1:2" ht="47.4" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="125.4" thickBot="1">
+    <row r="8" spans="1:2" ht="47.4" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="125.4" thickBot="1">
+    <row r="9" spans="1:2" ht="31.8" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="156.6" thickBot="1">
+    <row r="10" spans="1:2" ht="47.4" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="109.8" thickBot="1">
+    <row r="11" spans="1:2" ht="31.8" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="141" thickBot="1">
+    <row r="12" spans="1:2" ht="31.8" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="109.8" thickBot="1">
+    <row r="13" spans="1:2" ht="31.8" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="125.4" thickBot="1">
+    <row r="14" spans="1:2" ht="31.8" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="94.2" thickBot="1">
+    <row r="15" spans="1:2" ht="31.8" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="94.2" thickBot="1">
+    <row r="16" spans="1:2" ht="31.8" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="125.4" thickBot="1">
+    <row r="17" spans="1:1" ht="47.4" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="125.4" thickBot="1">
+    <row r="18" spans="1:1" ht="31.8" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="172.2" thickBot="1">
+    <row r="19" spans="1:1" ht="63" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="156.6" thickBot="1">
+    <row r="20" spans="1:1" ht="47.4" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="63" thickBot="1">
+    <row r="21" spans="1:1" ht="31.8" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
